--- a/Eletronica calculos.xlsx
+++ b/Eletronica calculos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diretórios\Zaldef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93161288-9DB0-4697-AD1C-7201E7D2A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50ECB4D-9FE0-4DED-98F1-90D03ED9A4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{668BB2A7-42D5-49B5-859B-A129EBFF42CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{668BB2A7-42D5-49B5-859B-A129EBFF42CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="RCI (DC)" sheetId="1" r:id="rId1"/>
     <sheet name="RTC (DC)" sheetId="2" r:id="rId2"/>
     <sheet name="RTI (DC)" sheetId="3" r:id="rId3"/>
+    <sheet name="Xc Xl Fc Fr" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
   <si>
     <t>Converção de bases</t>
   </si>
@@ -510,6 +511,72 @@
   </si>
   <si>
     <t>Vr(t) &amp; Vl(t)</t>
+  </si>
+  <si>
+    <t>Reatância Capacitiva (Xc)</t>
+  </si>
+  <si>
+    <t>Reatância Indutiva (Xl)</t>
+  </si>
+  <si>
+    <t>Xc</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>dados</t>
+  </si>
+  <si>
+    <t>obtidos</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Xl</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Frequencia de ressonancia</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>Passa Faixa</t>
+  </si>
+  <si>
+    <t>Resistor - Capacitor</t>
+  </si>
+  <si>
+    <t>Capacitor - Resistor</t>
+  </si>
+  <si>
+    <t>Resistor - Indutor</t>
+  </si>
+  <si>
+    <t>Indutor - Resistor</t>
+  </si>
+  <si>
+    <t>Passa Alta</t>
+  </si>
+  <si>
+    <t>Passa Baixa</t>
+  </si>
+  <si>
+    <t>Rejeita faixa</t>
   </si>
 </sst>
 </file>
@@ -585,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1218,11 +1285,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1244,7 +1469,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,68 +1478,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1349,24 +1521,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,27 +1568,37 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,17 +1610,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,18 +1688,74 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7121,6 +7400,141 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57572A3C-85F8-6AD6-095D-068F5D6CE5DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="521" t="22945" r="-521" b="17396"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9526" y="200025"/>
+          <a:ext cx="1828800" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E60D09-EB96-BEC3-DDE5-CBCD6E1A7338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="2" b="26258"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838326" y="209550"/>
+          <a:ext cx="1800224" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66569D80-23E9-9FED-46B7-E3571C9D6EFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981076" y="1914526"/>
+          <a:ext cx="1771650" cy="540698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -7421,7 +7835,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7437,57 +7851,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="K1" s="26" t="s">
+      <c r="G1" s="80"/>
+      <c r="K1" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
-      <c r="P1" s="80" t="s">
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
+      <c r="P1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="23" t="s">
+      <c r="Q1" s="77"/>
+      <c r="R1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="11" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="K2" s="42" t="s">
+      <c r="G2" s="64"/>
+      <c r="K2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="54" t="s">
         <v>55</v>
       </c>
       <c r="R2" s="4" t="s">
@@ -7501,27 +7915,27 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="K3" s="36" t="s">
+      <c r="G3" s="64"/>
+      <c r="K3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="O3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="O3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="82">
+      <c r="P3" s="50"/>
+      <c r="Q3" s="55">
         <f>P4*P5</f>
         <v>0</v>
       </c>
@@ -7536,27 +7950,27 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="11" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="K4" s="12" t="s">
+      <c r="G4" s="64"/>
+      <c r="K4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
-      <c r="O4" s="34" t="s">
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+      <c r="O4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="83" t="e">
+      <c r="P4" s="52"/>
+      <c r="Q4" s="34" t="e">
         <f>P3/P5</f>
         <v>#DIV/0!</v>
       </c>
@@ -7571,27 +7985,27 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="K5" s="12" t="s">
+      <c r="G5" s="67"/>
+      <c r="K5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="O5" s="34" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="O5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="83" t="e">
+      <c r="P5" s="52"/>
+      <c r="Q5" s="34" t="e">
         <f>P3/P4</f>
         <v>#DIV/0!</v>
       </c>
@@ -7606,22 +8020,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="30">
         <f>L3+L4+L5</f>
         <v>0</v>
       </c>
-      <c r="M6" s="50" t="e">
+      <c r="M6" s="31" t="e">
         <f>(1/M3+1/M4+1/M5)^-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="84">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="33">
         <f>P3*P4</f>
         <v>0</v>
       </c>
@@ -7636,27 +8050,27 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="26" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="K7" s="26" t="s">
+      <c r="G7" s="80"/>
+      <c r="K7" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="O7" s="29" t="s">
+      <c r="L7" s="79"/>
+      <c r="M7" s="80"/>
+      <c r="O7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="82">
+      <c r="P7" s="50"/>
+      <c r="Q7" s="55">
         <f>P8*P9</f>
         <v>0</v>
       </c>
@@ -7671,31 +8085,31 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="11" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="K8" s="42" t="s">
+      <c r="G8" s="64"/>
+      <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="83" t="e">
+      <c r="P8" s="52"/>
+      <c r="Q8" s="34" t="e">
         <f>P7/P9</f>
         <v>#DIV/0!</v>
       </c>
@@ -7710,27 +8124,27 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="11" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="K9" s="43" t="s">
+      <c r="G9" s="64"/>
+      <c r="K9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
-      <c r="O9" s="30" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="O9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="83" t="e">
+      <c r="P9" s="52"/>
+      <c r="Q9" s="34" t="e">
         <f>P7/P8</f>
         <v>#DIV/0!</v>
       </c>
@@ -7745,305 +8159,300 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="11" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="K10" s="44" t="s">
+      <c r="G10" s="64"/>
+      <c r="K10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="O10" s="31" t="s">
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="O10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="84">
+      <c r="P10" s="53"/>
+      <c r="Q10" s="33">
         <f>P7*P8*0.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="18" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="K11" s="44" t="s">
+      <c r="G11" s="67"/>
+      <c r="K11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="51" t="e">
+      <c r="L12" s="32" t="e">
         <f>(1/L9+1/L10+1/L11)^-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="31">
         <f>M9+M10+M11</f>
         <v>0</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="88" t="s">
+      <c r="O12" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="26" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="K13" s="26" t="s">
+      <c r="G13" s="80"/>
+      <c r="K13" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92" t="s">
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="93" t="s">
+      <c r="Q13" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="K14" s="42" t="s">
+      <c r="G14" s="83"/>
+      <c r="K14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="29" t="s">
+      <c r="O14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96">
+      <c r="P14" s="58"/>
+      <c r="Q14" s="59">
         <f>((P15^2)*P16*P17)/P18</f>
         <v>7.5398223686155038E-4</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="11" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="K15" s="36" t="s">
+      <c r="G15" s="64"/>
+      <c r="K15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
-      <c r="O15" s="30" t="s">
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="O15" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="97">
+      <c r="P15" s="60">
         <v>30</v>
       </c>
-      <c r="Q15" s="98"/>
+      <c r="Q15" s="61"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="11" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="K16" s="12" t="s">
+      <c r="G16" s="64"/>
+      <c r="K16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="O16" s="30" t="s">
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="O16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="99">
+      <c r="P16" s="52">
         <f>4*PI()*10^-7</f>
         <v>1.2566370614359173E-6</v>
       </c>
-      <c r="Q16" s="59"/>
+      <c r="Q16" s="34"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="11" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="K17" s="12" t="s">
+      <c r="G17" s="64"/>
+      <c r="K17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="O17" s="30" t="s">
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="O17" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="P17" s="99">
+      <c r="P17" s="52">
         <v>0.01</v>
       </c>
-      <c r="Q17" s="59"/>
+      <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="11" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="K18" s="38" t="s">
+      <c r="G18" s="64"/>
+      <c r="K18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="30">
         <f>L15+L16+L17</f>
         <v>0</v>
       </c>
-      <c r="M18" s="50" t="e">
+      <c r="M18" s="31" t="e">
         <f>(1/M15+1/M16+1/M17)^-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O18" s="94" t="s">
+      <c r="O18" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="P18" s="100">
+      <c r="P18" s="53">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q18" s="58"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="11" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="J19" s="21"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="11" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="64"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F7:G7"/>
@@ -8055,20 +8464,22 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8081,8 +8492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D96AECE-6E6C-4298-81A5-7DD2D316BB55}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8091,244 +8502,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="F3" s="60" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="F3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="70">
+      <c r="C4" s="85"/>
+      <c r="D4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="44">
         <v>0</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="38">
         <f>0*D8</f>
         <v>0</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="38">
         <f>(D5)*EXP(1)^(-F4/D8)</f>
         <v>4.5454545454545452E-3</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="38">
         <f>D4*EXP(1)^(-(G4/D8))</f>
         <v>1</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="39">
         <f>D4*(1-EXP(1)^(-(G4/D8)))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="37" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="70">
+      <c r="C5" s="86"/>
+      <c r="D5" s="45">
         <f>D4/D6</f>
         <v>4.5454545454545452E-3</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="40">
         <f>1*D8</f>
         <v>2.1999999999999998E-4</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="40">
         <f>(D4/D6)*EXP(1)^(-G5/D8)</f>
         <v>1.6721792780520104E-3</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="40">
         <f>D4*EXP(1)^(-(G5/D8))</f>
         <v>0.36787944117144233</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="41">
         <f>D4*(1-EXP(1)^(-(G5/D8)))</f>
         <v>0.63212055882855767</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="47">
         <v>2E-3</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="48">
         <f>(D5)*EXP(1)^(-L5/D8)</f>
         <v>5.1220718412636668E-7</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="48">
         <f>D4*EXP(1)^(-(L5/D8))</f>
         <v>1.1268558050780067E-4</v>
       </c>
-      <c r="O5" s="74">
+      <c r="O5" s="49">
         <f>D4*(1-EXP(1)^(-(L5/D8)))</f>
         <v>0.99988731441949219</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="70">
+      <c r="C6" s="86"/>
+      <c r="D6" s="45">
         <v>220</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="25">
         <v>2</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="40">
         <f>2*D8</f>
         <v>4.3999999999999996E-4</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="40">
         <f>(D4/D6)*EXP(1)^(-G6/D8)</f>
         <v>6.1516037834823958E-4</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="40">
         <f>D4*EXP(1)^(-(G6/D8))</f>
         <v>0.1353352832366127</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="41">
         <f>D4*(1-EXP(1)^(-(G6/D8)))</f>
         <v>0.8646647167633873</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="70">
+      <c r="C7" s="86"/>
+      <c r="D7" s="45">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="25">
         <v>3</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="40">
         <f>3*D8</f>
         <v>6.6E-4</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="40">
         <f>(D4/D6)*EXP(1)^(-G7/D8)</f>
         <v>2.2630485621756327E-4</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="40">
         <f>D4*EXP(1)^(-(G7/D8))</f>
         <v>4.9787068367863924E-2</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="41">
         <f>D4*(1-EXP(1)^(-(G7/D8)))</f>
         <v>0.95021293163213605</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="71">
+      <c r="C8" s="88"/>
+      <c r="D8" s="46">
         <f>D6*D7</f>
         <v>2.1999999999999998E-4</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="25">
         <v>4</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="40">
         <f>4*D8</f>
         <v>8.7999999999999992E-4</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="40">
         <f>(D4/D6)*EXP(1)^(-G8/D8)</f>
         <v>8.3252904039700829E-5</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="40">
         <f>D4*EXP(1)^(-(G8/D8))</f>
         <v>1.8315638888734182E-2</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="41">
         <f>D4*(1-EXP(1)^(-(G8/D8)))</f>
         <v>0.98168436111126578</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
-      <c r="F9" s="40">
+      <c r="F9" s="21">
         <v>5</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="42">
         <f>5*D8</f>
         <v>1.0999999999999998E-3</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="42">
         <f>(D4/D6)*EXP(1)^(-G9/D8)</f>
         <v>3.0627031814024854E-5</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="42">
         <f>D4*EXP(1)^(-(G9/D8))</f>
         <v>6.7379469990854687E-3</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="43">
         <f>D4*(1-EXP(1)^(-(G9/D8)))</f>
         <v>0.99326205300091452</v>
       </c>
@@ -8341,14 +8752,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -8359,8 +8770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD89B72-2909-4987-9D0C-A3B20D01FD5D}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8369,291 +8780,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="F3" s="60" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="F3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="N3" s="26" t="s">
+      <c r="J3" s="77"/>
+      <c r="N3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="70">
+      <c r="C4" s="85"/>
+      <c r="D4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="44">
         <v>0</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="38">
         <f>0*D8</f>
         <v>0</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="38">
         <f>D5</f>
         <v>4.5454545454545452E-3</v>
       </c>
-      <c r="I4" s="102">
+      <c r="I4" s="96">
         <f>D4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="N4" s="60" t="s">
+      <c r="J4" s="97"/>
+      <c r="N4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="81"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="70">
+      <c r="C5" s="86"/>
+      <c r="D5" s="45">
         <f>D4/D6</f>
         <v>4.5454545454545452E-3</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="40">
         <f>1*D8</f>
         <v>2.1999999999999998E-4</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="40">
         <f>D5*EXP(1)^(-G5/D8)</f>
         <v>1.6721792780520104E-3</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="98">
         <f>D4*EXP(1)^(-(G5/D8))</f>
         <v>0.36787944117144233</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="N5" s="72">
+      <c r="J5" s="99"/>
+      <c r="N5" s="47">
         <v>0</v>
       </c>
-      <c r="O5" s="73">
+      <c r="O5" s="48">
         <f>D5*EXP(1)^(-N5/D8)</f>
         <v>4.5454545454545452E-3</v>
       </c>
-      <c r="P5" s="104">
+      <c r="P5" s="94">
         <f>D4*EXP(1)^(-(N5/D8))</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="105"/>
+      <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="70">
+      <c r="C6" s="86"/>
+      <c r="D6" s="45">
         <v>220</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="25">
         <v>2</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="40">
         <f>2*D8</f>
         <v>4.3999999999999996E-4</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="40">
         <f>D5*EXP(1)^(-G6/D8)</f>
         <v>6.1516037834823958E-4</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="98">
         <f>D4*EXP(1)^(-(G6/D8))</f>
         <v>0.1353352832366127</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="99"/>
       <c r="K6" s="2"/>
-      <c r="N6" s="72">
+      <c r="N6" s="47">
         <v>1E-3</v>
       </c>
-      <c r="O6" s="73">
+      <c r="O6" s="48">
         <f>D5*EXP(1)^(-N6/D8)</f>
         <v>4.8251574827166697E-5</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="89">
         <f>D4*EXP(1)^(-(N6/D8))</f>
         <v>1.0615346461976673E-2</v>
       </c>
-      <c r="Q6" s="107"/>
+      <c r="Q6" s="90"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="70">
+      <c r="C7" s="86"/>
+      <c r="D7" s="45">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="25">
         <v>3</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="40">
         <f>3*D8</f>
         <v>6.6E-4</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="40">
         <f>D5*EXP(1)^(-G7/D8)</f>
         <v>2.2630485621756327E-4</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="98">
         <f>D4*EXP(1)^(-(G7/D8))</f>
         <v>4.9787068367863924E-2</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="N7" s="72">
+      <c r="J7" s="99"/>
+      <c r="N7" s="47">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O7" s="48">
         <f>D5*EXP(1)^(-N7/D8)</f>
         <v>5.4372567198148561E-9</v>
       </c>
-      <c r="P7" s="106">
+      <c r="P7" s="89">
         <f>D4*EXP(1)^(-(N7/D8))</f>
         <v>1.1961964783592684E-6</v>
       </c>
-      <c r="Q7" s="107"/>
+      <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="71">
+      <c r="C8" s="88"/>
+      <c r="D8" s="46">
         <f>D6*D7</f>
         <v>2.1999999999999998E-4</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="25">
         <v>4</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="40">
         <f>4*D8</f>
         <v>8.7999999999999992E-4</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="40">
         <f>D5*EXP(1)^(-G8/D8)</f>
         <v>8.3252904039700829E-5</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="98">
         <f>D4*EXP(1)^(-(G8/D8))</f>
         <v>1.8315638888734182E-2</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="N8" s="72">
+      <c r="J8" s="99"/>
+      <c r="N8" s="47">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="48">
         <f>D5*EXP(1)^(-N8/D8)</f>
         <v>5.7718363883545572E-11</v>
       </c>
-      <c r="P8" s="106">
+      <c r="P8" s="89">
         <f>D4*EXP(1)^(-(N8/D8))</f>
         <v>1.2698040054380027E-8</v>
       </c>
-      <c r="Q8" s="107"/>
+      <c r="Q8" s="90"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
-      <c r="F9" s="40">
+      <c r="F9" s="21">
         <v>5</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="42">
         <f>5*D8</f>
         <v>1.0999999999999998E-3</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="42">
         <f>D5*EXP(1)^(-G9/D8)</f>
         <v>3.0627031814024854E-5</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="91">
         <f>D4*EXP(1)^(-(G9/D8))</f>
         <v>6.7379469990854687E-3</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="N9" s="72">
+      <c r="J9" s="92"/>
+      <c r="N9" s="47">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O9" s="73">
+      <c r="O9" s="48">
         <f>D5*EXP(1)^(-N9/D8)</f>
         <v>6.1270042984227708E-13</v>
       </c>
-      <c r="P9" s="106">
+      <c r="P9" s="89">
         <f>D4*EXP(1)^(-(N9/D8))</f>
         <v>1.3479409456530097E-10</v>
       </c>
-      <c r="Q9" s="107"/>
+      <c r="Q9" s="90"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
-      <c r="N10" s="72">
+      <c r="N10" s="47">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O10" s="73">
+      <c r="O10" s="48">
         <f>D5*EXP(1)^(-N10/D8)</f>
         <v>6.504027340177798E-15</v>
       </c>
-      <c r="P10" s="106">
+      <c r="P10" s="89">
         <f>D4*EXP(1)^(-(N10/D8))</f>
         <v>1.4308860148391156E-12</v>
       </c>
-      <c r="Q10" s="107"/>
+      <c r="Q10" s="90"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="P4:Q4"/>
@@ -8662,22 +9087,290 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C4FC20-727A-465F-A676-F4347D456539}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="121"/>
+      <c r="F1" s="122"/>
+      <c r="H1" s="123" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="113"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="111"/>
+      <c r="H2" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="125" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="114"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="112"/>
+      <c r="H3" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="125" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="110">
+        <f>9/(2*PI()*B9*B7)</f>
+        <v>143.23944878270581</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="115">
+        <f>2*PI()*E9*E7</f>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="H5" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="125" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="110">
+        <f>1/(2*PI()*B8*B7)</f>
+        <v>1591.5494309189535</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="108"/>
+      <c r="F6" s="115">
+        <f>E8/(2*PI()*E7)</f>
+        <v>1591.5494309189532</v>
+      </c>
+      <c r="H6" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="127" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="129">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C7" s="110"/>
+      <c r="D7" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="129">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="115"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="129">
+        <v>100</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="129">
+        <v>100</v>
+      </c>
+      <c r="F8" s="115"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="129">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="129">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="115"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="100">
+        <f>1/(2*PI()*SQRT(E7*B7))</f>
+        <v>1591.5494309189535</v>
+      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="113"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>